--- a/xls_config/xlsx/OutdoorBossItem.xlsx
+++ b/xls_config/xlsx/OutdoorBossItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>level</t>
   </si>
   <si>
+    <t>xiaoGuai</t>
+  </si>
+  <si>
     <t>maps</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>妖王等级</t>
   </si>
   <si>
+    <t>小怪列表：加上主怪不得超过10个</t>
+  </si>
+  <si>
     <t>所在地图</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>黑熊妖皇</t>
+  </si>
+  <si>
+    <t>玄武,玄武,玄武,玄武,玄武,玄武,玄武,玄武,玄武</t>
   </si>
   <si>
     <t>天墉城,百花谷一</t>
@@ -90,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,6 +120,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -133,20 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -155,11 +219,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,79 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +266,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,97 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,21 +470,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -486,6 +480,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,35 +525,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,7 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,19 +1030,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="85" customWidth="1"/>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,36 +1065,42 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>6600</v>
@@ -1093,21 +1109,24 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>6604</v>
@@ -1116,21 +1135,24 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>6605</v>
@@ -1139,21 +1161,24 @@
         <v>50</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>6603</v>
@@ -1162,13 +1187,16 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/xls_config/xlsx/OutdoorBossItem.xlsx
+++ b/xls_config/xlsx/OutdoorBossItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,15 @@
     <t>rewards</t>
   </si>
   <si>
+    <t>dlgContent</t>
+  </si>
+  <si>
+    <t>startButtonTip</t>
+  </si>
+  <si>
+    <t>exitButtonTip</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -64,6 +73,15 @@
     <t>奖励</t>
   </si>
   <si>
+    <t>对话框的话</t>
+  </si>
+  <si>
+    <t>开始挑战的按钮</t>
+  </si>
+  <si>
+    <t>离开的按钮</t>
+  </si>
+  <si>
     <t>黑熊妖皇</t>
   </si>
   <si>
@@ -74,6 +92,15 @@
   </si>
   <si>
     <t>经验#200|道行#200|物品#风寂云清,雷极弧光</t>
+  </si>
+  <si>
+    <t>爷们刚想着抢点东西，你就送上门来了。</t>
+  </si>
+  <si>
+    <t>为民除害</t>
+  </si>
+  <si>
+    <t>糟了，遇见了海盗，赶紧逃命</t>
   </si>
   <si>
     <t>赤血鬼猿</t>
@@ -113,6 +140,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -121,9 +194,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,15 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,107 +263,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,40 +487,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -503,7 +506,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +537,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +569,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,20 +1057,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="6" max="6" width="53.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="85" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,39 +1098,57 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>6600</v>
@@ -1112,21 +1160,30 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>6604</v>
@@ -1138,21 +1195,30 @@
         <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>6605</v>
@@ -1164,21 +1230,30 @@
         <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>6603</v>
@@ -1190,13 +1265,22 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
